--- a/src/analysis_examples/circadb/results_jtk/cosinor_10451943_plin5_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10451943_plin5_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.11523552555237815, 0.26292473412483]</t>
+          <t>[0.1157576130166525, 0.2624026466605556]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.79459338787813e-05</v>
+        <v>2.55798436146204e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.79459338787813e-05</v>
+        <v>2.55798436146204e-05</v>
       </c>
       <c r="O2" t="n">
         <v>-1.283052855520156</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.6981581911296182, -0.8679475199106932]</t>
+          <t>[-1.7107371406935412, -0.8553685703467702]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.267845584436046e-06</v>
+        <v>3.453195422942201e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>2.267845584436046e-06</v>
+        <v>3.453195422942201e-06</v>
       </c>
       <c r="S2" t="n">
         <v>0.2753846300201003</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.23432924751422607, 0.3164400125259745]</t>
+          <t>[0.23431718016691847, 0.31645207987328206]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4.32764934998886e-12</v>
+        <v>4.352074256530614e-12</v>
       </c>
       <c r="V2" t="n">
-        <v>4.32764934998886e-12</v>
+        <v>4.352074256530614e-12</v>
       </c>
       <c r="W2" t="n">
         <v>4.586426426426506</v>
       </c>
       <c r="X2" t="n">
-        <v>3.102582582582635</v>
+        <v>3.05761761761767</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.070270270270377</v>
+        <v>6.115235235235342</v>
       </c>
     </row>
   </sheetData>
